--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_294.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_294.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,602 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1231060606060606</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08557692307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'A/2', 'A/b3', 'A/3']]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(22.94, 30.25)]</t>
+          <t>[['Db', 'Db:7', 'Gb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(62.891179, 66.21244)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:00.800000', '0:01:09.040000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:24.642743', '0:00:31.492630')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_98</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1464285714285714</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:7', 'G:7', 'C']]</t>
-        </is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'D:7', 'G']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(19.17, 22.65)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(35.940952, 56.455803)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04807692307692308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.26, 23.34), (61.44, 85.44)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.72, 20.92), (49.74, 69.8)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:04:43.300000', '0:04:47.580000'), ('0:00:26.960000', '0:00:30.840000'), ('0:00:10.160000', '0:00:13.840000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:10.980000', '0:01:20.440000'), ('0:00:42.440000', '0:00:44.360000'), ('0:01:30.600000', '0:01:41.180000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2030075187969925</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['B', 'E', 'B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.44, 45.54)]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.32, 51.92)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:42.313129', '0:00:58.392947')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:07.702000', '0:00:15.006000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2735294117647059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Eb:7']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2403846153846154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7']]</t>
+          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(26.13, 30.62)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(237.58, 249.08)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:42.174263', '0:01:51.798209'), ('0:01:45.425056', '0:01:55.003287')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08542372881355932</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.162280701754386</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07)]</t>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1369047619047619</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F', 'C/3', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(76.132993, 77.56102)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(11.82, 17.361)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(254.26, 257.98), (23.04, 26.52), (7.84, 11.42)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(70.06, 80.28), (41.58, 43.48), (90.78, 101.32)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2606060606060606</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4588235294117647</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'F:min', 'C:min/5']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(79.178, 90.02)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(83.738, 87.713)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:03.599751', '0:00:07.761836')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05277777777777778</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:min', 'Eb:min'], ['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7']]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.96, 9.2), (32.8, 35.47)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(24.76, 30.02), (250.3, 252.76)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2375</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.58, 9.4)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2166666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.16, 15.08)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4318181818181818</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(55.58, 66.2)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.726778, 14.737663)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(82.24, 89.66)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(70.34, 77.22)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(15.32, 17.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(42.52, 46.36)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
